--- a/excelPath/test/testChartModule2Excel.xlsx
+++ b/excelPath/test/testChartModule2Excel.xlsx
@@ -14,21 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Orange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>name(string)</t>
+  </si>
+  <si>
+    <t>dept(string)</t>
+  </si>
+  <si>
+    <t>lunchTime(timeofday)</t>
+  </si>
+  <si>
+    <t>salary(number)</t>
+  </si>
+  <si>
+    <t>hireDate(date)</t>
+  </si>
+  <si>
+    <t>age(number)</t>
+  </si>
+  <si>
+    <t>isSenior(boolean)</t>
+  </si>
+  <si>
+    <t>seniorityStartTime(datetime)</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>2005-03-19</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2007-12-02 15:56:00</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>13:01:30.123</t>
+  </si>
+  <si>
+    <t>500.5</t>
+  </si>
+  <si>
+    <t>2006-04-19</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>2005-03-09 12:30:00.32</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>09:30:05</t>
+  </si>
+  <si>
+    <t>2005-10-10</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -405,13 +462,13 @@
   <sheetPr>
     <tabColor rgb="FFC0000"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,27 +478,98 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/excelPath/test/testChartModule2Excel.xlsx
+++ b/excelPath/test/testChartModule2Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>name(string)</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>13:01:30.123</t>
-  </si>
-  <si>
-    <t>500.5</t>
   </si>
   <si>
     <t>2006-04-19</t>
@@ -530,46 +527,46 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>500.5</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>27</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>600</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
